--- a/DevDocuments/KPIs/Sources/SPRINT_POINTS.xlsx
+++ b/DevDocuments/KPIs/Sources/SPRINT_POINTS.xlsx
@@ -7,19 +7,21 @@
     <sheet state="visible" name="Week 4" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Week 5" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Week 6" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Week 7" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="KPI 1" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mjFfo3OEEPRKslO1xT/+AFyjLi/8A=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mh1tFFlwSP1pa1aLSO9i0mdz/UBxA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="62">
   <si>
     <t>USER STORIES</t>
   </si>
@@ -174,20 +176,44 @@
     <t>In progress</t>
   </si>
   <si>
+    <t>Review</t>
+  </si>
+  <si>
     <t>Done</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Review</t>
+    <t>ÄNDRA INTE! KONSTIGA SAKER KAN HÄNDA.</t>
+  </si>
+  <si>
+    <t>Estimated points</t>
+  </si>
+  <si>
+    <t>Added points</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Tyckte det var lite tråkiga färger, men det går givetvis att ändra tillbaka</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -207,11 +233,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-    </font>
-    <font/>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -355,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -394,20 +415,14 @@
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -549,11 +564,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1170962398"/>
-        <c:axId val="345621009"/>
+        <c:axId val="1955081819"/>
+        <c:axId val="1561917948"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1170962398"/>
+        <c:axId val="1955081819"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -605,10 +620,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345621009"/>
+        <c:crossAx val="1561917948"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="345621009"/>
+        <c:axId val="1561917948"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -683,7 +698,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1170962398"/>
+        <c:crossAx val="1955081819"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -873,11 +888,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="691405392"/>
-        <c:axId val="1299820632"/>
+        <c:axId val="1683775898"/>
+        <c:axId val="1627812811"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="691405392"/>
+        <c:axId val="1683775898"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -929,10 +944,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1299820632"/>
+        <c:crossAx val="1627812811"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1299820632"/>
+        <c:axId val="1627812811"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1007,7 +1022,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="691405392"/>
+        <c:crossAx val="1683775898"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1191,11 +1206,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="702948245"/>
-        <c:axId val="1985881473"/>
+        <c:axId val="78290936"/>
+        <c:axId val="2117647429"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="702948245"/>
+        <c:axId val="78290936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1247,10 +1262,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1985881473"/>
+        <c:crossAx val="2117647429"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1985881473"/>
+        <c:axId val="2117647429"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1325,7 +1340,598 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="702948245"/>
+        <c:crossAx val="78290936"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Sprint Week 7</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Week 7'!$B$2</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Week 7'!$A$3:$A$10</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Week 7'!$B$3:$B$10</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Week 7'!$C$2</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="5"/>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Week 7'!$A$3:$A$10</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Week 7'!$C$3:$C$10</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Week 7'!$D$2</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="E06666"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="5"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E06666"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Week 7'!$A$3:$A$10</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Week 7'!$D$3:$D$10</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Week 7'!$E$2</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="7"/>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Week 7'!$A$3:$A$10</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Week 7'!$E$3:$E$10</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="1503611344"/>
+        <c:axId val="1339511034"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1503611344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1339511034"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1339511034"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1503611344"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Estimated and added effort points per sprint</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Estimated points</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF00FF"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="1"/>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'KPI 1'!$A$4:$A$7</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'KPI 1'!$B$4:$B$7</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Added points</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'KPI 1'!$A$4:$A$7</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'KPI 1'!$C$4:$C$7</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="881302656"/>
+        <c:axId val="665423506"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="881302656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="665423506"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="665423506"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Effort points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="881302656"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1428,6 +2034,66 @@
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="153492285" name="Chart 3" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="372427736" name="Chart 4" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="682053911" name="Chart 5" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1654,8 +2320,8 @@
     <col customWidth="1" min="3" max="7" width="7.63"/>
     <col customWidth="1" min="8" max="8" width="11.0"/>
     <col customWidth="1" min="9" max="9" width="9.63"/>
-    <col customWidth="1" min="10" max="14" width="9.13"/>
-    <col customWidth="1" min="15" max="26" width="7.63"/>
+    <col customWidth="1" min="10" max="15" width="9.13"/>
+    <col customWidth="1" min="16" max="27" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -2239,8 +2905,8 @@
       <c r="C43" s="19">
         <v>2.0</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22">
+      <c r="D43" s="19"/>
+      <c r="E43" s="19">
         <v>2.0</v>
       </c>
       <c r="G43" s="3" t="s">
@@ -2250,6 +2916,21 @@
         <v>39</v>
       </c>
       <c r="I43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2260,8 +2941,8 @@
       <c r="C44" s="19">
         <v>8.0</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22">
+      <c r="D44" s="19"/>
+      <c r="E44" s="19">
         <v>8.0</v>
       </c>
       <c r="G44" s="3" t="s">
@@ -2271,6 +2952,21 @@
         <v>15</v>
       </c>
       <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2281,8 +2977,10 @@
       <c r="C45" s="19">
         <v>3.0</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="10"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19">
+        <v>3.0</v>
+      </c>
       <c r="G45" s="3" t="s">
         <v>14</v>
       </c>
@@ -2291,6 +2989,21 @@
       </c>
       <c r="I45" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
@@ -2300,8 +3013,8 @@
       <c r="C46" s="19">
         <v>0.5</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22">
+      <c r="D46" s="19"/>
+      <c r="E46" s="19">
         <v>0.5</v>
       </c>
       <c r="G46" s="3" t="s">
@@ -2311,6 +3024,21 @@
         <v>15</v>
       </c>
       <c r="I46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2321,8 +3049,8 @@
       <c r="C47" s="19">
         <v>0.5</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22">
+      <c r="D47" s="19"/>
+      <c r="E47" s="19">
         <v>0.5</v>
       </c>
       <c r="G47" s="3" t="s">
@@ -2334,16 +3062,31 @@
       <c r="I47" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="24">
+      <c r="C48" s="23">
         <v>0.5</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25">
+      <c r="D48" s="23"/>
+      <c r="E48" s="23">
         <v>0.5</v>
       </c>
       <c r="H48" s="3" t="s">
@@ -2352,16 +3095,31 @@
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="24">
+      <c r="C49" s="23">
         <v>2.0</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25">
+      <c r="D49" s="23"/>
+      <c r="E49" s="23">
         <v>2.0</v>
       </c>
       <c r="H49" s="3" t="s">
@@ -2370,59 +3128,124 @@
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="24">
-        <v>4.0</v>
-      </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
+      <c r="C50" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
       <c r="H50" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="J50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="24">
+      <c r="C51" s="23">
         <v>1.0</v>
       </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23">
+        <v>1.0</v>
+      </c>
       <c r="I51" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="J51" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="24">
+      <c r="C52" s="23">
         <v>3.0</v>
       </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
       <c r="I52" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="J52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="24">
+      <c r="C53" s="23">
         <v>2.0</v>
       </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
       <c r="I53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2430,25 +3253,191 @@
       <c r="B54" s="14"/>
       <c r="C54" s="15">
         <f>SUM(C43:C53)</f>
-        <v>26.5</v>
+        <v>27.5</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="16">
         <f>SUM(E43:E47)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1">
+      <c r="G56" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" customHeight="1">
+      <c r="H57" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" customHeight="1">
+      <c r="G58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" s="4">
+        <f>2+8+3+0.5*2</f>
+        <v>14</v>
+      </c>
+      <c r="L58" s="4">
+        <f t="shared" ref="L58:L65" si="1">SUM(H58:K58)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" customHeight="1">
+      <c r="G59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I59" s="4">
+        <f>8+0.5+5</f>
+        <v>13.5</v>
+      </c>
+      <c r="J59" s="4">
+        <f>2+0.5*2+2</f>
+        <v>5</v>
+      </c>
+      <c r="L59" s="4">
+        <f t="shared" si="1"/>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25" customHeight="1">
+      <c r="G60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="4">
+        <f>3+1+3+2</f>
+        <v>9</v>
+      </c>
+      <c r="I60" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="K60" s="4">
+        <f t="shared" ref="K60:K61" si="2">2+8+0.5*3+2</f>
+        <v>13.5</v>
+      </c>
+      <c r="L60" s="4">
+        <f t="shared" si="1"/>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25" customHeight="1">
+      <c r="G61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" s="4">
+        <f t="shared" ref="H61:H62" si="3">3+2</f>
+        <v>5</v>
+      </c>
+      <c r="I61" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J61" s="4">
+        <f>3+1</f>
+        <v>4</v>
+      </c>
+      <c r="K61" s="4">
+        <f t="shared" si="2"/>
+        <v>13.5</v>
+      </c>
+      <c r="L61" s="4">
+        <f t="shared" si="1"/>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25" customHeight="1">
+      <c r="G62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="4">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="K62" s="4">
+        <f t="shared" ref="K62:K64" si="4">2+8+0.5*3+2+3+1</f>
+        <v>17.5</v>
+      </c>
+      <c r="L62" s="4">
+        <f t="shared" si="1"/>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" customHeight="1">
+      <c r="G63" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
+      <c r="H63" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I63" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J63" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="K63" s="4">
+        <f t="shared" si="4"/>
+        <v>17.5</v>
+      </c>
+      <c r="L63" s="4">
+        <f t="shared" si="1"/>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25" customHeight="1">
+      <c r="G64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I64" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J64" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="K64" s="4">
+        <f t="shared" si="4"/>
+        <v>17.5</v>
+      </c>
+      <c r="L64" s="4">
+        <f t="shared" si="1"/>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25" customHeight="1">
+      <c r="G65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K65" s="4">
+        <f>2+8+0.5*3+2+3+1+2+5+3</f>
+        <v>27.5</v>
+      </c>
+      <c r="L65" s="4">
+        <f t="shared" si="1"/>
+        <v>27.5</v>
+      </c>
+    </row>
     <row r="66" ht="14.25" customHeight="1"/>
     <row r="67" ht="14.25" customHeight="1"/>
     <row r="68" ht="14.25" customHeight="1"/>
@@ -3420,10 +4409,10 @@
         <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -3800,13 +4789,13 @@
         <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -4012,7 +5001,7 @@
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2">
       <c r="B2" s="3" t="s">
@@ -4022,13 +5011,13 @@
         <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -4199,6 +5188,274 @@
       <c r="F10" s="4">
         <f t="shared" si="1"/>
         <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4">
+        <f>2+8+3+0.5*2</f>
+        <v>14</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F10" si="1">SUM(B3:E3)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="4">
+        <f>8+0.5+5</f>
+        <v>13.5</v>
+      </c>
+      <c r="D4" s="4">
+        <f>2+0.5*2+2</f>
+        <v>5</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="1"/>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4">
+        <f>3+1+3+2</f>
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" ref="E5:E6" si="2">2+8+0.5*3+2</f>
+        <v>13.5</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="1"/>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
+        <f t="shared" ref="B6:B7" si="3">3+2</f>
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D6" s="4">
+        <f>3+1</f>
+        <v>4</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="2"/>
+        <v>13.5</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" ref="E7:E9" si="4">2+8+0.5*3+2+3+1</f>
+        <v>17.5</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="4"/>
+        <v>17.5</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="4"/>
+        <v>17.5</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="4">
+        <f>2+8+0.5*3+2+3+1+2+5+3</f>
+        <v>27.5</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="1"/>
+        <v>27.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="3">
+      <c r="B3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
